--- a/data/hydrological.xlsx
+++ b/data/hydrological.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="11">
   <si>
     <t xml:space="preserve">Thứ</t>
   </si>
@@ -229,6 +229,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -242,10 +246,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,11 +284,11 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A328" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D355" activeCellId="0" sqref="D355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.55"/>
@@ -10476,25 +10476,7 @@
         <v>12.77994</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B352" s="9" t="n">
-        <v>51</v>
-      </c>
-      <c r="C352" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D352" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E352" s="10"/>
-      <c r="F352" s="10"/>
-      <c r="G352" s="10"/>
-      <c r="H352" s="10"/>
-      <c r="I352" s="11"/>
-    </row>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10534,11 +10516,11 @@
       <selection pane="topLeft" activeCell="A306" activeCellId="0" sqref="A306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
@@ -10574,7 +10556,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="n">
@@ -10601,7 +10583,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="n">
@@ -10628,7 +10610,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="n">
@@ -10655,7 +10637,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="n">
@@ -10682,7 +10664,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="n">
@@ -10709,7 +10691,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="n">
@@ -10736,7 +10718,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="5" t="n">
@@ -10763,7 +10745,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="n">
@@ -10790,7 +10772,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="n">
@@ -10817,7 +10799,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="n">
@@ -10844,7 +10826,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="n">
@@ -10871,7 +10853,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B13" s="5" t="n">
@@ -10898,7 +10880,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B14" s="5" t="n">
@@ -10925,7 +10907,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="5" t="n">
@@ -10952,7 +10934,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="n">
@@ -10979,7 +10961,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B17" s="5" t="n">
@@ -11006,7 +10988,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B18" s="5" t="n">
@@ -11033,7 +11015,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="A19" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B19" s="5" t="n">
@@ -11060,7 +11042,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
+      <c r="A20" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B20" s="5" t="n">
@@ -11087,7 +11069,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B21" s="5" t="n">
@@ -11114,7 +11096,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="5" t="n">
@@ -11141,7 +11123,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
+      <c r="A23" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B23" s="5" t="n">
@@ -11168,7 +11150,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
+      <c r="A24" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B24" s="5" t="n">
@@ -11195,7 +11177,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+      <c r="A25" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B25" s="5" t="n">
@@ -11222,7 +11204,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
+      <c r="A26" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B26" s="5" t="n">
@@ -11249,7 +11231,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
+      <c r="A27" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B27" s="5" t="n">
@@ -11276,7 +11258,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
+      <c r="A28" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B28" s="5" t="n">
@@ -11303,7 +11285,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="5" t="n">
@@ -11330,7 +11312,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+      <c r="A30" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B30" s="5" t="n">
@@ -11357,7 +11339,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="A31" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B31" s="5" t="n">
@@ -11384,7 +11366,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
+      <c r="A32" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B32" s="5" t="n">
@@ -11411,7 +11393,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="n">
+      <c r="A33" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B33" s="5" t="n">
@@ -11438,7 +11420,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="n">
+      <c r="A34" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B34" s="5" t="n">
@@ -11465,7 +11447,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="n">
+      <c r="A35" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B35" s="5" t="n">
@@ -11492,7 +11474,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="5" t="n">
@@ -11519,7 +11501,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="n">
+      <c r="A37" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B37" s="5" t="n">
@@ -11546,7 +11528,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
+      <c r="A38" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B38" s="5" t="n">
@@ -11573,7 +11555,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="n">
+      <c r="A39" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B39" s="5" t="n">
@@ -11600,7 +11582,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
+      <c r="A40" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B40" s="5" t="n">
@@ -11627,7 +11609,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="n">
+      <c r="A41" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B41" s="5" t="n">
@@ -11654,7 +11636,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="n">
+      <c r="A42" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B42" s="5" t="n">
@@ -11681,7 +11663,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="5" t="n">
@@ -11708,7 +11690,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="n">
+      <c r="A44" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B44" s="5" t="n">
@@ -11735,7 +11717,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="n">
+      <c r="A45" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B45" s="5" t="n">
@@ -11762,7 +11744,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="n">
+      <c r="A46" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B46" s="5" t="n">
@@ -11789,7 +11771,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="n">
+      <c r="A47" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B47" s="5" t="n">
@@ -11816,7 +11798,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="n">
+      <c r="A48" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B48" s="5" t="n">
@@ -11843,7 +11825,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="n">
+      <c r="A49" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B49" s="5" t="n">
@@ -11870,7 +11852,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="5" t="n">
@@ -11897,7 +11879,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="n">
+      <c r="A51" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B51" s="5" t="n">
@@ -11924,7 +11906,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="n">
+      <c r="A52" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B52" s="5" t="n">
@@ -11951,7 +11933,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="n">
+      <c r="A53" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B53" s="5" t="n">
@@ -11978,7 +11960,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="n">
+      <c r="A54" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B54" s="5" t="n">
@@ -12005,7 +11987,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="n">
+      <c r="A55" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B55" s="5" t="n">
@@ -12032,7 +12014,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="n">
+      <c r="A56" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B56" s="5" t="n">
@@ -12059,7 +12041,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="5" t="n">
@@ -12086,7 +12068,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="n">
+      <c r="A58" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B58" s="5" t="n">
@@ -12113,7 +12095,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="n">
+      <c r="A59" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B59" s="5" t="n">
@@ -12140,7 +12122,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="n">
+      <c r="A60" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B60" s="5" t="n">
@@ -12167,7 +12149,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="n">
+      <c r="A61" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B61" s="5" t="n">
@@ -12194,7 +12176,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="n">
+      <c r="A62" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B62" s="5" t="n">
@@ -12221,7 +12203,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="n">
+      <c r="A63" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B63" s="5" t="n">
@@ -12248,7 +12230,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="5" t="n">
@@ -12275,7 +12257,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="n">
+      <c r="A65" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B65" s="5" t="n">
@@ -12302,7 +12284,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="n">
+      <c r="A66" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B66" s="5" t="n">
@@ -12329,7 +12311,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="n">
+      <c r="A67" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B67" s="5" t="n">
@@ -12356,7 +12338,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="n">
+      <c r="A68" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B68" s="5" t="n">
@@ -12383,7 +12365,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="n">
+      <c r="A69" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B69" s="5" t="n">
@@ -12410,7 +12392,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="n">
+      <c r="A70" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B70" s="5" t="n">
@@ -12437,7 +12419,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B71" s="5" t="n">
@@ -12464,7 +12446,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="n">
+      <c r="A72" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B72" s="5" t="n">
@@ -12491,7 +12473,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="n">
+      <c r="A73" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B73" s="5" t="n">
@@ -12518,7 +12500,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="n">
+      <c r="A74" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B74" s="5" t="n">
@@ -12545,7 +12527,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="n">
+      <c r="A75" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B75" s="5" t="n">
@@ -12572,7 +12554,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="n">
+      <c r="A76" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B76" s="5" t="n">
@@ -12599,7 +12581,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12" t="n">
+      <c r="A77" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B77" s="5" t="n">
@@ -12626,7 +12608,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B78" s="5" t="n">
@@ -12653,7 +12635,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="n">
+      <c r="A79" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B79" s="5" t="n">
@@ -12680,7 +12662,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="n">
+      <c r="A80" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B80" s="5" t="n">
@@ -12707,7 +12689,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="n">
+      <c r="A81" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B81" s="5" t="n">
@@ -12734,7 +12716,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="n">
+      <c r="A82" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B82" s="5" t="n">
@@ -12761,7 +12743,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="n">
+      <c r="A83" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B83" s="5" t="n">
@@ -12788,7 +12770,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="n">
+      <c r="A84" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B84" s="5" t="n">
@@ -12815,7 +12797,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B85" s="5" t="n">
@@ -12842,7 +12824,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="n">
+      <c r="A86" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B86" s="5" t="n">
@@ -12869,7 +12851,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="n">
+      <c r="A87" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B87" s="5" t="n">
@@ -12896,7 +12878,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="n">
+      <c r="A88" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B88" s="5" t="n">
@@ -12923,7 +12905,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="n">
+      <c r="A89" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B89" s="5" t="n">
@@ -12950,7 +12932,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12" t="n">
+      <c r="A90" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B90" s="5" t="n">
@@ -12977,7 +12959,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12" t="n">
+      <c r="A91" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B91" s="5" t="n">
@@ -13004,7 +12986,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B92" s="5" t="n">
@@ -13031,7 +13013,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12" t="n">
+      <c r="A93" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B93" s="5" t="n">
@@ -13058,7 +13040,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12" t="n">
+      <c r="A94" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B94" s="5" t="n">
@@ -13085,7 +13067,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12" t="n">
+      <c r="A95" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B95" s="5" t="n">
@@ -13112,7 +13094,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="12" t="n">
+      <c r="A96" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B96" s="5" t="n">
@@ -13139,7 +13121,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12" t="n">
+      <c r="A97" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B97" s="5" t="n">
@@ -13166,7 +13148,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="12" t="n">
+      <c r="A98" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B98" s="5" t="n">
@@ -13193,7 +13175,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B99" s="5" t="n">
@@ -13220,7 +13202,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="12" t="n">
+      <c r="A100" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B100" s="5" t="n">
@@ -13247,7 +13229,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="n">
+      <c r="A101" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B101" s="5" t="n">
@@ -13274,7 +13256,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="n">
+      <c r="A102" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B102" s="5" t="n">
@@ -13301,7 +13283,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12" t="n">
+      <c r="A103" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B103" s="5" t="n">
@@ -13328,7 +13310,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="12" t="n">
+      <c r="A104" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B104" s="5" t="n">
@@ -13355,7 +13337,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="12" t="n">
+      <c r="A105" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B105" s="5" t="n">
@@ -13382,7 +13364,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B106" s="5" t="n">
@@ -13409,7 +13391,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12" t="n">
+      <c r="A107" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B107" s="5" t="n">
@@ -13436,7 +13418,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="n">
+      <c r="A108" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B108" s="5" t="n">
@@ -13463,7 +13445,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12" t="n">
+      <c r="A109" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B109" s="5" t="n">
@@ -13490,7 +13472,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12" t="n">
+      <c r="A110" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B110" s="5" t="n">
@@ -13517,7 +13499,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12" t="n">
+      <c r="A111" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B111" s="5" t="n">
@@ -13544,7 +13526,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12" t="n">
+      <c r="A112" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B112" s="5" t="n">
@@ -13571,7 +13553,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="5" t="n">
@@ -13598,7 +13580,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12" t="n">
+      <c r="A114" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B114" s="5" t="n">
@@ -13625,7 +13607,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12" t="n">
+      <c r="A115" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B115" s="5" t="n">
@@ -13652,7 +13634,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="12" t="n">
+      <c r="A116" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B116" s="5" t="n">
@@ -13679,7 +13661,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="12" t="n">
+      <c r="A117" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B117" s="5" t="n">
@@ -13706,7 +13688,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="12" t="n">
+      <c r="A118" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B118" s="5" t="n">
@@ -13733,7 +13715,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12" t="n">
+      <c r="A119" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B119" s="5" t="n">
@@ -13760,7 +13742,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B120" s="5" t="n">
@@ -13787,7 +13769,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12" t="n">
+      <c r="A121" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B121" s="5" t="n">
@@ -13814,7 +13796,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="12" t="n">
+      <c r="A122" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B122" s="5" t="n">
@@ -13841,7 +13823,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12" t="n">
+      <c r="A123" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B123" s="5" t="n">
@@ -13868,7 +13850,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12" t="n">
+      <c r="A124" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B124" s="5" t="n">
@@ -13895,7 +13877,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12" t="n">
+      <c r="A125" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B125" s="5" t="n">
@@ -13922,7 +13904,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12" t="n">
+      <c r="A126" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B126" s="5" t="n">
@@ -13949,7 +13931,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B127" s="5" t="n">
@@ -13976,7 +13958,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12" t="n">
+      <c r="A128" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B128" s="5" t="n">
@@ -14003,7 +13985,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="n">
+      <c r="A129" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B129" s="5" t="n">
@@ -14030,7 +14012,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12" t="n">
+      <c r="A130" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B130" s="5" t="n">
@@ -14057,7 +14039,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12" t="n">
+      <c r="A131" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B131" s="5" t="n">
@@ -14084,7 +14066,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="12" t="n">
+      <c r="A132" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B132" s="5" t="n">
@@ -14111,7 +14093,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12" t="n">
+      <c r="A133" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B133" s="5" t="n">
@@ -14138,7 +14120,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B134" s="5" t="n">
@@ -14165,7 +14147,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12" t="n">
+      <c r="A135" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B135" s="5" t="n">
@@ -14192,7 +14174,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12" t="n">
+      <c r="A136" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B136" s="5" t="n">
@@ -14219,7 +14201,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="12" t="n">
+      <c r="A137" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B137" s="5" t="n">
@@ -14246,7 +14228,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="12" t="n">
+      <c r="A138" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B138" s="5" t="n">
@@ -14273,7 +14255,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12" t="n">
+      <c r="A139" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B139" s="5" t="n">
@@ -14300,7 +14282,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="12" t="n">
+      <c r="A140" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B140" s="5" t="n">
@@ -14327,7 +14309,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B141" s="5" t="n">
@@ -14354,7 +14336,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12" t="n">
+      <c r="A142" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B142" s="5" t="n">
@@ -14381,7 +14363,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="12" t="n">
+      <c r="A143" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B143" s="5" t="n">
@@ -14408,7 +14390,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="12" t="n">
+      <c r="A144" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B144" s="5" t="n">
@@ -14435,7 +14417,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="12" t="n">
+      <c r="A145" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B145" s="5" t="n">
@@ -14462,7 +14444,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="12" t="n">
+      <c r="A146" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B146" s="5" t="n">
@@ -14489,7 +14471,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="12" t="n">
+      <c r="A147" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B147" s="5" t="n">
@@ -14516,7 +14498,7 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B148" s="5" t="n">
@@ -14543,7 +14525,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="12" t="n">
+      <c r="A149" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B149" s="5" t="n">
@@ -14570,7 +14552,7 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="12" t="n">
+      <c r="A150" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B150" s="5" t="n">
@@ -14597,7 +14579,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="12" t="n">
+      <c r="A151" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B151" s="5" t="n">
@@ -14624,7 +14606,7 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="12" t="n">
+      <c r="A152" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B152" s="5" t="n">
@@ -14651,7 +14633,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="12" t="n">
+      <c r="A153" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B153" s="5" t="n">
@@ -14678,7 +14660,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="12" t="n">
+      <c r="A154" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B154" s="5" t="n">
@@ -14705,7 +14687,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B155" s="5" t="n">
@@ -14732,7 +14714,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="12" t="n">
+      <c r="A156" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B156" s="5" t="n">
@@ -14759,7 +14741,7 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="12" t="n">
+      <c r="A157" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B157" s="5" t="n">
@@ -14786,7 +14768,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="12" t="n">
+      <c r="A158" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B158" s="5" t="n">
@@ -14813,7 +14795,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="12" t="n">
+      <c r="A159" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B159" s="5" t="n">
@@ -14840,7 +14822,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="12" t="n">
+      <c r="A160" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B160" s="5" t="n">
@@ -14867,7 +14849,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="12" t="n">
+      <c r="A161" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B161" s="5" t="n">
@@ -14894,7 +14876,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="12" t="s">
+      <c r="A162" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B162" s="5" t="n">
@@ -14921,7 +14903,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="12" t="n">
+      <c r="A163" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B163" s="5" t="n">
@@ -14948,7 +14930,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="12" t="n">
+      <c r="A164" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B164" s="5" t="n">
@@ -14975,7 +14957,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="12" t="n">
+      <c r="A165" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B165" s="5" t="n">
@@ -15002,7 +14984,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="12" t="n">
+      <c r="A166" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B166" s="5" t="n">
@@ -15029,7 +15011,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="12" t="n">
+      <c r="A167" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B167" s="5" t="n">
@@ -15056,7 +15038,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="12" t="n">
+      <c r="A168" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B168" s="5" t="n">
@@ -15083,7 +15065,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B169" s="5" t="n">
@@ -15110,7 +15092,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="12" t="n">
+      <c r="A170" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B170" s="5" t="n">
@@ -15137,7 +15119,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="12" t="n">
+      <c r="A171" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B171" s="5" t="n">
@@ -15164,7 +15146,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="12" t="n">
+      <c r="A172" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B172" s="5" t="n">
@@ -15191,7 +15173,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="12" t="n">
+      <c r="A173" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B173" s="5" t="n">
@@ -15218,7 +15200,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="12" t="n">
+      <c r="A174" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B174" s="5" t="n">
@@ -15245,7 +15227,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="12" t="n">
+      <c r="A175" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B175" s="5" t="n">
@@ -15272,7 +15254,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="12" t="s">
+      <c r="A176" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B176" s="5" t="n">
@@ -15299,7 +15281,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="12" t="n">
+      <c r="A177" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B177" s="5" t="n">
@@ -15326,7 +15308,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="12" t="n">
+      <c r="A178" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B178" s="5" t="n">
@@ -15353,7 +15335,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="12" t="n">
+      <c r="A179" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B179" s="5" t="n">
@@ -15380,7 +15362,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="12" t="n">
+      <c r="A180" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B180" s="5" t="n">
@@ -15407,7 +15389,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="12" t="n">
+      <c r="A181" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B181" s="5" t="n">
@@ -15434,7 +15416,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="12" t="n">
+      <c r="A182" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B182" s="5" t="n">
@@ -15461,7 +15443,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="12" t="s">
+      <c r="A183" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B183" s="5" t="n">
@@ -15488,7 +15470,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="12" t="n">
+      <c r="A184" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B184" s="5" t="n">
@@ -15515,7 +15497,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="12" t="n">
+      <c r="A185" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B185" s="5" t="n">
@@ -15542,7 +15524,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="12" t="n">
+      <c r="A186" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B186" s="5" t="n">
@@ -15569,7 +15551,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="12" t="n">
+      <c r="A187" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B187" s="5" t="n">
@@ -15596,7 +15578,7 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="12" t="n">
+      <c r="A188" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B188" s="5" t="n">
@@ -15623,7 +15605,7 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="12" t="n">
+      <c r="A189" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B189" s="5" t="n">
@@ -15650,7 +15632,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="12" t="s">
+      <c r="A190" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B190" s="5" t="n">
@@ -15677,7 +15659,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="12" t="n">
+      <c r="A191" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B191" s="5" t="n">
@@ -15704,7 +15686,7 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="12" t="n">
+      <c r="A192" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B192" s="5" t="n">
@@ -15731,7 +15713,7 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="12" t="n">
+      <c r="A193" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B193" s="5" t="n">
@@ -15758,7 +15740,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="12" t="n">
+      <c r="A194" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B194" s="5" t="n">
@@ -15785,7 +15767,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="12" t="n">
+      <c r="A195" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B195" s="5" t="n">
@@ -15812,7 +15794,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="12" t="n">
+      <c r="A196" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B196" s="5" t="n">
@@ -15839,7 +15821,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="12" t="s">
+      <c r="A197" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B197" s="5" t="n">
@@ -15866,7 +15848,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="12" t="n">
+      <c r="A198" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B198" s="5" t="n">
@@ -15893,7 +15875,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="12" t="n">
+      <c r="A199" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B199" s="5" t="n">
@@ -15920,7 +15902,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="12" t="n">
+      <c r="A200" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B200" s="5" t="n">
@@ -15947,7 +15929,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="12" t="n">
+      <c r="A201" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B201" s="5" t="n">
@@ -15974,7 +15956,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="12" t="n">
+      <c r="A202" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B202" s="5" t="n">
@@ -16001,7 +15983,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="12" t="n">
+      <c r="A203" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B203" s="5" t="n">
@@ -16028,7 +16010,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="12" t="s">
+      <c r="A204" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B204" s="5" t="n">
@@ -16055,7 +16037,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="12" t="n">
+      <c r="A205" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B205" s="5" t="n">
@@ -16082,7 +16064,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="12" t="n">
+      <c r="A206" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B206" s="5" t="n">
@@ -16109,7 +16091,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="12" t="n">
+      <c r="A207" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B207" s="5" t="n">
@@ -16136,7 +16118,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="12" t="n">
+      <c r="A208" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B208" s="5" t="n">
@@ -16163,7 +16145,7 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="12" t="n">
+      <c r="A209" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B209" s="5" t="n">
@@ -16190,7 +16172,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="12" t="n">
+      <c r="A210" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B210" s="5" t="n">
@@ -16217,7 +16199,7 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="12" t="s">
+      <c r="A211" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B211" s="5" t="n">
@@ -16244,7 +16226,7 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="12" t="n">
+      <c r="A212" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B212" s="5" t="n">
@@ -16271,7 +16253,7 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="12" t="n">
+      <c r="A213" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B213" s="5" t="n">
@@ -16298,7 +16280,7 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="12" t="n">
+      <c r="A214" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B214" s="5" t="n">
@@ -16325,7 +16307,7 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="12" t="n">
+      <c r="A215" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B215" s="5" t="n">
@@ -16352,7 +16334,7 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="12" t="n">
+      <c r="A216" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B216" s="5" t="n">
@@ -16379,7 +16361,7 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="12" t="n">
+      <c r="A217" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B217" s="5" t="n">
@@ -16406,7 +16388,7 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="12" t="n">
+      <c r="A218" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B218" s="5" t="n">
@@ -16433,7 +16415,7 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="12" t="n">
+      <c r="A219" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B219" s="5" t="n">
@@ -16460,7 +16442,7 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="12" t="s">
+      <c r="A220" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B220" s="5" t="n">
@@ -16487,7 +16469,7 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="12" t="n">
+      <c r="A221" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B221" s="5" t="n">
@@ -16514,7 +16496,7 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="12" t="n">
+      <c r="A222" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B222" s="5" t="n">
@@ -16541,7 +16523,7 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="12" t="n">
+      <c r="A223" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B223" s="5" t="n">
@@ -16568,7 +16550,7 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="12" t="n">
+      <c r="A224" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B224" s="5" t="n">
@@ -16595,7 +16577,7 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="12" t="n">
+      <c r="A225" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B225" s="5" t="n">
@@ -16622,7 +16604,7 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="12" t="n">
+      <c r="A226" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B226" s="5" t="n">
@@ -16649,7 +16631,7 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="12" t="s">
+      <c r="A227" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B227" s="5" t="n">
@@ -16676,7 +16658,7 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="12" t="n">
+      <c r="A228" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B228" s="5" t="n">
@@ -16703,7 +16685,7 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="12" t="n">
+      <c r="A229" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B229" s="5" t="n">
@@ -16730,7 +16712,7 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="12" t="n">
+      <c r="A230" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B230" s="5" t="n">
@@ -16757,7 +16739,7 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="12" t="n">
+      <c r="A231" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B231" s="5" t="n">
@@ -16784,7 +16766,7 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="12" t="n">
+      <c r="A232" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B232" s="5" t="n">
@@ -16811,7 +16793,7 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="12" t="n">
+      <c r="A233" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B233" s="5" t="n">
@@ -16838,7 +16820,7 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="12" t="s">
+      <c r="A234" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B234" s="5" t="n">
@@ -16865,7 +16847,7 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="12" t="n">
+      <c r="A235" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B235" s="5" t="n">
@@ -16892,7 +16874,7 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="12" t="n">
+      <c r="A236" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B236" s="5" t="n">
@@ -16919,7 +16901,7 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="12" t="n">
+      <c r="A237" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B237" s="5" t="n">
@@ -16946,7 +16928,7 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="12" t="s">
+      <c r="A238" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B238" s="5" t="n">
@@ -16973,7 +16955,7 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="12" t="n">
+      <c r="A239" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B239" s="5" t="n">
@@ -17000,7 +16982,7 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="12" t="n">
+      <c r="A240" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B240" s="5" t="n">
@@ -17027,7 +17009,7 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="12" t="n">
+      <c r="A241" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B241" s="5" t="n">
@@ -17054,7 +17036,7 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="12" t="n">
+      <c r="A242" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B242" s="5" t="n">
@@ -17081,7 +17063,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="12" t="n">
+      <c r="A243" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B243" s="5" t="n">
@@ -17108,7 +17090,7 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="12" t="n">
+      <c r="A244" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B244" s="5" t="n">
@@ -17135,7 +17117,7 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="12" t="n">
+      <c r="A245" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B245" s="5" t="n">
@@ -17162,7 +17144,7 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="12" t="s">
+      <c r="A246" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B246" s="5" t="n">
@@ -17189,7 +17171,7 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="12" t="n">
+      <c r="A247" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B247" s="5" t="n">
@@ -17216,7 +17198,7 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="12" t="n">
+      <c r="A248" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B248" s="5" t="n">
@@ -17243,7 +17225,7 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="12" t="n">
+      <c r="A249" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B249" s="5" t="n">
@@ -17270,7 +17252,7 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="12" t="n">
+      <c r="A250" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B250" s="5" t="n">
@@ -17297,7 +17279,7 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="12" t="n">
+      <c r="A251" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B251" s="5" t="n">
@@ -17324,7 +17306,7 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="12" t="n">
+      <c r="A252" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B252" s="5" t="n">
@@ -17351,7 +17333,7 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="12" t="s">
+      <c r="A253" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B253" s="5" t="n">
@@ -17378,7 +17360,7 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="12" t="n">
+      <c r="A254" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B254" s="5" t="n">
@@ -17405,7 +17387,7 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="12" t="n">
+      <c r="A255" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B255" s="5" t="n">
@@ -17432,7 +17414,7 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="12" t="n">
+      <c r="A256" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B256" s="5" t="n">
@@ -17459,7 +17441,7 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="12" t="n">
+      <c r="A257" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B257" s="5" t="n">
@@ -17486,7 +17468,7 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="12" t="n">
+      <c r="A258" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B258" s="5" t="n">
@@ -17513,7 +17495,7 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="12" t="n">
+      <c r="A259" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B259" s="5" t="n">
@@ -17540,7 +17522,7 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="12" t="n">
+      <c r="A260" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B260" s="5" t="n">
@@ -17567,7 +17549,7 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="12" t="n">
+      <c r="A261" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B261" s="5" t="n">
@@ -17594,7 +17576,7 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="12" t="n">
+      <c r="A262" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B262" s="5" t="n">
@@ -17621,7 +17603,7 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="12" t="n">
+      <c r="A263" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B263" s="5" t="n">
@@ -17648,7 +17630,7 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="12" t="s">
+      <c r="A264" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B264" s="5" t="n">
@@ -17675,7 +17657,7 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="12" t="n">
+      <c r="A265" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B265" s="5" t="n">
@@ -17702,7 +17684,7 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="12" t="n">
+      <c r="A266" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B266" s="5" t="n">
@@ -17729,7 +17711,7 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="12" t="n">
+      <c r="A267" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B267" s="5" t="n">
@@ -17756,7 +17738,7 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="12" t="s">
+      <c r="A268" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B268" s="5" t="n">
@@ -17783,7 +17765,7 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="12" t="n">
+      <c r="A269" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B269" s="5" t="n">
@@ -17810,7 +17792,7 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="12" t="n">
+      <c r="A270" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B270" s="5" t="n">
@@ -17837,7 +17819,7 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="12" t="n">
+      <c r="A271" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B271" s="5" t="n">
@@ -17864,7 +17846,7 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="12" t="n">
+      <c r="A272" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B272" s="5" t="n">
@@ -17891,7 +17873,7 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="12" t="n">
+      <c r="A273" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B273" s="5" t="n">
@@ -17918,7 +17900,7 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="12" t="n">
+      <c r="A274" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B274" s="5" t="n">
@@ -17945,7 +17927,7 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="12" t="s">
+      <c r="A275" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B275" s="5" t="n">
@@ -17972,7 +17954,7 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="12" t="n">
+      <c r="A276" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B276" s="5" t="n">
@@ -17999,7 +17981,7 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="12" t="n">
+      <c r="A277" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B277" s="5" t="n">
@@ -18026,7 +18008,7 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="12" t="n">
+      <c r="A278" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B278" s="5" t="n">
@@ -18053,7 +18035,7 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="12" t="n">
+      <c r="A279" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B279" s="5" t="n">
@@ -18080,7 +18062,7 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="12" t="n">
+      <c r="A280" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B280" s="5" t="n">
@@ -18107,7 +18089,7 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="12" t="n">
+      <c r="A281" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B281" s="5" t="n">
@@ -18134,7 +18116,7 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="12" t="s">
+      <c r="A282" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B282" s="5" t="n">
@@ -18161,7 +18143,7 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="12" t="n">
+      <c r="A283" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B283" s="5" t="n">
@@ -18188,7 +18170,7 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="12" t="n">
+      <c r="A284" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B284" s="5" t="n">
@@ -18215,7 +18197,7 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="12" t="n">
+      <c r="A285" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B285" s="5" t="n">
@@ -18242,7 +18224,7 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="12" t="n">
+      <c r="A286" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B286" s="5" t="n">
@@ -18269,7 +18251,7 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="12" t="n">
+      <c r="A287" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B287" s="5" t="n">
@@ -18296,7 +18278,7 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="12" t="n">
+      <c r="A288" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B288" s="5" t="n">
@@ -18323,7 +18305,7 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="12" t="n">
+      <c r="A289" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B289" s="5" t="n">
@@ -18350,7 +18332,7 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="12" t="n">
+      <c r="A290" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B290" s="5" t="n">
@@ -18377,7 +18359,7 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="12" t="n">
+      <c r="A291" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B291" s="5" t="n">
@@ -18404,7 +18386,7 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="12" t="n">
+      <c r="A292" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B292" s="5" t="n">
@@ -18431,7 +18413,7 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="12" t="s">
+      <c r="A293" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B293" s="5" t="n">
@@ -18458,7 +18440,7 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="12" t="n">
+      <c r="A294" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B294" s="5" t="n">
@@ -18485,7 +18467,7 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="12" t="n">
+      <c r="A295" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B295" s="5" t="n">
@@ -18512,7 +18494,7 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="12" t="n">
+      <c r="A296" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B296" s="5" t="n">
@@ -18539,7 +18521,7 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="12" t="n">
+      <c r="A297" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B297" s="5" t="n">
@@ -18566,7 +18548,7 @@
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="12" t="n">
+      <c r="A298" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B298" s="5" t="n">
@@ -18593,7 +18575,7 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="12" t="n">
+      <c r="A299" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B299" s="5" t="n">
@@ -18620,7 +18602,7 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="12" t="s">
+      <c r="A300" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B300" s="5" t="n">
@@ -18647,7 +18629,7 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="12" t="n">
+      <c r="A301" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B301" s="5" t="n">
@@ -18674,7 +18656,7 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="12" t="n">
+      <c r="A302" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B302" s="5" t="n">
@@ -18701,7 +18683,7 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="12" t="n">
+      <c r="A303" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B303" s="5" t="n">
@@ -18728,7 +18710,7 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="12" t="n">
+      <c r="A304" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B304" s="5" t="n">
@@ -18755,7 +18737,7 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="12" t="n">
+      <c r="A305" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B305" s="5" t="n">
@@ -18782,7 +18764,7 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="12" t="n">
+      <c r="A306" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B306" s="5" t="n">
@@ -18809,7 +18791,7 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="12" t="n">
+      <c r="A307" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B307" s="5" t="n">
@@ -18836,7 +18818,7 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="12" t="n">
+      <c r="A308" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B308" s="5" t="n">
@@ -18863,7 +18845,7 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="12" t="s">
+      <c r="A309" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B309" s="5" t="n">
@@ -18890,7 +18872,7 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="12" t="n">
+      <c r="A310" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B310" s="5" t="n">
@@ -18917,7 +18899,7 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="12" t="n">
+      <c r="A311" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B311" s="5" t="n">
@@ -18944,7 +18926,7 @@
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="12" t="n">
+      <c r="A312" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B312" s="5" t="n">
@@ -18971,7 +18953,7 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="12" t="n">
+      <c r="A313" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B313" s="5" t="n">
@@ -18998,7 +18980,7 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="12" t="n">
+      <c r="A314" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B314" s="5" t="n">
@@ -19025,7 +19007,7 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="12" t="n">
+      <c r="A315" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B315" s="5" t="n">
@@ -19052,7 +19034,7 @@
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="12" t="s">
+      <c r="A316" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B316" s="5" t="n">
@@ -19079,7 +19061,7 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="12" t="n">
+      <c r="A317" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B317" s="5" t="n">
@@ -19106,7 +19088,7 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="12" t="n">
+      <c r="A318" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B318" s="5" t="n">
@@ -19133,7 +19115,7 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="12" t="n">
+      <c r="A319" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B319" s="5" t="n">
@@ -19160,7 +19142,7 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="12" t="n">
+      <c r="A320" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B320" s="5" t="n">
@@ -19187,7 +19169,7 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="12" t="n">
+      <c r="A321" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B321" s="5" t="n">
@@ -19214,7 +19196,7 @@
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="12" t="n">
+      <c r="A322" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B322" s="5" t="n">
@@ -19241,7 +19223,7 @@
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="12" t="s">
+      <c r="A323" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B323" s="5" t="n">
@@ -19268,7 +19250,7 @@
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="12" t="n">
+      <c r="A324" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B324" s="5" t="n">
@@ -19295,7 +19277,7 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="12" t="n">
+      <c r="A325" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B325" s="5" t="n">
@@ -19322,7 +19304,7 @@
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="12" t="n">
+      <c r="A326" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B326" s="5" t="n">
@@ -19349,7 +19331,7 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="12" t="n">
+      <c r="A327" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B327" s="5" t="n">
@@ -19376,7 +19358,7 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="12" t="n">
+      <c r="A328" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B328" s="5" t="n">
@@ -19403,7 +19385,7 @@
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="12" t="n">
+      <c r="A329" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B329" s="5" t="n">
@@ -19430,7 +19412,7 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="12" t="s">
+      <c r="A330" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B330" s="5" t="n">
@@ -19457,7 +19439,7 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="12" t="n">
+      <c r="A331" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B331" s="5" t="n">
@@ -19484,7 +19466,7 @@
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="12" t="n">
+      <c r="A332" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B332" s="5" t="n">
@@ -19511,7 +19493,7 @@
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="12" t="n">
+      <c r="A333" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B333" s="5" t="n">
@@ -19538,7 +19520,7 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="12" t="n">
+      <c r="A334" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B334" s="5" t="n">
@@ -19565,7 +19547,7 @@
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="12" t="n">
+      <c r="A335" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B335" s="5" t="n">
@@ -19592,7 +19574,7 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="12" t="n">
+      <c r="A336" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B336" s="5" t="n">
@@ -19619,29 +19601,29 @@
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="8" t="s">
+      <c r="A337" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B337" s="9" t="n">
+      <c r="B337" s="10" t="n">
         <v>51</v>
       </c>
-      <c r="C337" s="9" t="n">
+      <c r="C337" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D337" s="9" t="n">
+      <c r="D337" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E337" s="10" t="n">
+      <c r="E337" s="11" t="n">
         <v>61.2329230769231</v>
       </c>
-      <c r="F337" s="10" t="n">
+      <c r="F337" s="11" t="n">
         <v>9.6</v>
       </c>
-      <c r="G337" s="10" t="n">
+      <c r="G337" s="11" t="n">
         <v>22.911182051282</v>
       </c>
-      <c r="H337" s="10"/>
-      <c r="I337" s="11" t="n">
+      <c r="H337" s="11"/>
+      <c r="I337" s="12" t="n">
         <v>55.7673230769231</v>
       </c>
     </row>
@@ -19681,7 +19663,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.09"/>
@@ -19719,7 +19701,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="n">
@@ -19746,7 +19728,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="n">
@@ -19773,7 +19755,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="n">
@@ -19800,7 +19782,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="n">
@@ -19827,7 +19809,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5" t="n">
@@ -19854,7 +19836,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="n">
@@ -19881,7 +19863,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="n">
@@ -19908,7 +19890,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="n">
@@ -19935,7 +19917,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="n">
@@ -19962,7 +19944,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="n">
@@ -19989,7 +19971,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="n">
@@ -20016,7 +19998,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="n">
@@ -20043,7 +20025,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B14" s="5" t="n">
@@ -20070,7 +20052,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B15" s="5" t="n">
@@ -20097,7 +20079,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B16" s="5" t="n">
@@ -20124,7 +20106,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B17" s="5" t="n">
@@ -20151,7 +20133,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="n">
@@ -20178,7 +20160,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="A19" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B19" s="5" t="n">
@@ -20205,7 +20187,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="5" t="n">
@@ -20232,7 +20214,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B21" s="5" t="n">
@@ -20259,7 +20241,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="A22" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B22" s="5" t="n">
@@ -20286,7 +20268,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
+      <c r="A23" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B23" s="5" t="n">
@@ -20313,7 +20295,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
+      <c r="A24" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B24" s="5" t="n">
@@ -20340,7 +20322,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+      <c r="A25" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B25" s="5" t="n">
@@ -20367,7 +20349,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
+      <c r="A26" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B26" s="5" t="n">
@@ -20394,7 +20376,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="5" t="n">
@@ -20421,7 +20403,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
+      <c r="A28" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B28" s="5" t="n">
@@ -20448,7 +20430,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
+      <c r="A29" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B29" s="5" t="n">
@@ -20475,7 +20457,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+      <c r="A30" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B30" s="5" t="n">
@@ -20502,7 +20484,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="A31" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B31" s="5" t="n">
@@ -20529,7 +20511,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
+      <c r="A32" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B32" s="5" t="n">
@@ -20556,7 +20538,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="n">
+      <c r="A33" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B33" s="5" t="n">
@@ -20583,7 +20565,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="5" t="n">
@@ -20610,7 +20592,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="n">
+      <c r="A35" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B35" s="5" t="n">
@@ -20637,7 +20619,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="n">
+      <c r="A36" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B36" s="5" t="n">
@@ -20664,7 +20646,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="n">
+      <c r="A37" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B37" s="5" t="n">
@@ -20691,7 +20673,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
+      <c r="A38" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B38" s="5" t="n">
@@ -20718,7 +20700,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="n">
+      <c r="A39" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B39" s="5" t="n">
@@ -20745,7 +20727,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
+      <c r="A40" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B40" s="5" t="n">
@@ -20772,7 +20754,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="5" t="n">
@@ -20799,7 +20781,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="n">
+      <c r="A42" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B42" s="5" t="n">
@@ -20826,7 +20808,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="n">
+      <c r="A43" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B43" s="5" t="n">
@@ -20853,7 +20835,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="n">
+      <c r="A44" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B44" s="5" t="n">
@@ -20880,7 +20862,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="n">
+      <c r="A45" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B45" s="5" t="n">
@@ -20907,7 +20889,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="n">
+      <c r="A46" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B46" s="5" t="n">
@@ -20934,7 +20916,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="n">
+      <c r="A47" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B47" s="5" t="n">
@@ -20961,7 +20943,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="5" t="n">
@@ -20988,7 +20970,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="n">
+      <c r="A49" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B49" s="5" t="n">
@@ -21015,7 +20997,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="n">
+      <c r="A50" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B50" s="5" t="n">
@@ -21042,7 +21024,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="n">
+      <c r="A51" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B51" s="5" t="n">
@@ -21069,7 +21051,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="n">
+      <c r="A52" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B52" s="5" t="n">
@@ -21096,7 +21078,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="n">
+      <c r="A53" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B53" s="5" t="n">
@@ -21123,7 +21105,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="n">
+      <c r="A54" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B54" s="5" t="n">
@@ -21150,7 +21132,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="5" t="n">
@@ -21177,7 +21159,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="n">
+      <c r="A56" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B56" s="5" t="n">
@@ -21204,7 +21186,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="n">
+      <c r="A57" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B57" s="5" t="n">
@@ -21231,7 +21213,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="n">
+      <c r="A58" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B58" s="5" t="n">
@@ -21258,7 +21240,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="n">
+      <c r="A59" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B59" s="5" t="n">
@@ -21285,7 +21267,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="n">
+      <c r="A60" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B60" s="5" t="n">
@@ -21312,7 +21294,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="n">
+      <c r="A61" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B61" s="5" t="n">
@@ -21339,7 +21321,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="n">
+      <c r="A62" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B62" s="5" t="n">
@@ -21366,7 +21348,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="n">
+      <c r="A63" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B63" s="5" t="n">
@@ -21393,7 +21375,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="n">
+      <c r="A64" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B64" s="5" t="n">
@@ -21420,7 +21402,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="n">
+      <c r="A65" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B65" s="5" t="n">
@@ -21447,7 +21429,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="n">
+      <c r="A66" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B66" s="5" t="n">
@@ -21474,7 +21456,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B67" s="5" t="n">
@@ -21501,7 +21483,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="n">
+      <c r="A68" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B68" s="5" t="n">
@@ -21528,7 +21510,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="n">
+      <c r="A69" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B69" s="5" t="n">
@@ -21555,7 +21537,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="n">
+      <c r="A70" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B70" s="5" t="n">
@@ -21582,7 +21564,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="n">
+      <c r="A71" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B71" s="5" t="n">
@@ -21609,7 +21591,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="n">
+      <c r="A72" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B72" s="5" t="n">
@@ -21636,7 +21618,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="n">
+      <c r="A73" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B73" s="5" t="n">
@@ -21663,7 +21645,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="5" t="n">
@@ -21690,7 +21672,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="n">
+      <c r="A75" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B75" s="5" t="n">
@@ -21717,7 +21699,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="n">
+      <c r="A76" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B76" s="5" t="n">
@@ -21744,7 +21726,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12" t="n">
+      <c r="A77" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B77" s="5" t="n">
@@ -21771,7 +21753,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12" t="n">
+      <c r="A78" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B78" s="5" t="n">
@@ -21798,7 +21780,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="n">
+      <c r="A79" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B79" s="5" t="n">
@@ -21825,7 +21807,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="n">
+      <c r="A80" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B80" s="5" t="n">
@@ -21852,7 +21834,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B81" s="5" t="n">
@@ -21879,7 +21861,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="n">
+      <c r="A82" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B82" s="5" t="n">
@@ -21906,7 +21888,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="n">
+      <c r="A83" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B83" s="5" t="n">
@@ -21933,7 +21915,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="n">
+      <c r="A84" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B84" s="5" t="n">
@@ -21960,7 +21942,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="n">
+      <c r="A85" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B85" s="5" t="n">
@@ -21987,7 +21969,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="n">
+      <c r="A86" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B86" s="5" t="n">
@@ -22014,7 +21996,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="n">
+      <c r="A87" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B87" s="5" t="n">
@@ -22041,7 +22023,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B88" s="5" t="n">
@@ -22068,7 +22050,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="n">
+      <c r="A89" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B89" s="5" t="n">
@@ -22095,7 +22077,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12" t="n">
+      <c r="A90" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B90" s="5" t="n">
@@ -22122,7 +22104,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12" t="n">
+      <c r="A91" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B91" s="5" t="n">
@@ -22149,7 +22131,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="12" t="n">
+      <c r="A92" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B92" s="5" t="n">
@@ -22176,7 +22158,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12" t="n">
+      <c r="A93" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B93" s="5" t="n">
@@ -22203,7 +22185,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12" t="n">
+      <c r="A94" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B94" s="5" t="n">
@@ -22230,7 +22212,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B95" s="5" t="n">
@@ -22257,7 +22239,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="12" t="n">
+      <c r="A96" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B96" s="5" t="n">
@@ -22284,7 +22266,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12" t="n">
+      <c r="A97" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B97" s="5" t="n">
@@ -22311,7 +22293,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="12" t="n">
+      <c r="A98" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B98" s="5" t="n">
@@ -22338,7 +22320,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12" t="n">
+      <c r="A99" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B99" s="5" t="n">
@@ -22365,7 +22347,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="12" t="n">
+      <c r="A100" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B100" s="5" t="n">
@@ -22392,7 +22374,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="n">
+      <c r="A101" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B101" s="5" t="n">
@@ -22419,7 +22401,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B102" s="5" t="n">
@@ -22446,7 +22428,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12" t="n">
+      <c r="A103" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B103" s="5" t="n">
@@ -22473,7 +22455,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="12" t="n">
+      <c r="A104" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B104" s="5" t="n">
@@ -22500,7 +22482,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="12" t="n">
+      <c r="A105" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B105" s="5" t="n">
@@ -22527,7 +22509,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="12" t="n">
+      <c r="A106" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B106" s="5" t="n">
@@ -22554,7 +22536,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12" t="n">
+      <c r="A107" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B107" s="5" t="n">
@@ -22581,7 +22563,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="n">
+      <c r="A108" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B108" s="5" t="n">
@@ -22608,7 +22590,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B109" s="5" t="n">
@@ -22635,7 +22617,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12" t="n">
+      <c r="A110" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B110" s="5" t="n">
@@ -22662,7 +22644,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12" t="n">
+      <c r="A111" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B111" s="5" t="n">
@@ -22689,7 +22671,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12" t="n">
+      <c r="A112" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B112" s="5" t="n">
@@ -22716,7 +22698,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12" t="n">
+      <c r="A113" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B113" s="5" t="n">
@@ -22743,7 +22725,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12" t="n">
+      <c r="A114" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B114" s="5" t="n">
@@ -22770,7 +22752,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12" t="n">
+      <c r="A115" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B115" s="5" t="n">
@@ -22797,7 +22779,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B116" s="5" t="n">
@@ -22824,7 +22806,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="12" t="n">
+      <c r="A117" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B117" s="5" t="n">
@@ -22851,7 +22833,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="12" t="n">
+      <c r="A118" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B118" s="5" t="n">
@@ -22878,7 +22860,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12" t="n">
+      <c r="A119" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B119" s="5" t="n">
@@ -22905,7 +22887,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="12" t="n">
+      <c r="A120" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B120" s="5" t="n">
@@ -22932,7 +22914,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B121" s="5" t="n">
@@ -22959,7 +22941,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="12" t="n">
+      <c r="A122" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B122" s="5" t="n">
@@ -22986,7 +22968,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12" t="n">
+      <c r="A123" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B123" s="5" t="n">
@@ -23013,7 +22995,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12" t="n">
+      <c r="A124" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B124" s="5" t="n">
@@ -23040,7 +23022,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12" t="n">
+      <c r="A125" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B125" s="5" t="n">
@@ -23067,7 +23049,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12" t="n">
+      <c r="A126" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B126" s="5" t="n">
@@ -23094,7 +23076,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="n">
+      <c r="A127" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B127" s="5" t="n">
@@ -23121,7 +23103,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B128" s="5" t="n">
@@ -23148,7 +23130,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="n">
+      <c r="A129" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B129" s="5" t="n">
@@ -23175,7 +23157,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12" t="n">
+      <c r="A130" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B130" s="5" t="n">
@@ -23202,7 +23184,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12" t="n">
+      <c r="A131" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B131" s="5" t="n">
@@ -23229,7 +23211,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="12" t="n">
+      <c r="A132" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B132" s="5" t="n">
@@ -23256,7 +23238,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12" t="n">
+      <c r="A133" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B133" s="5" t="n">
@@ -23283,7 +23265,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="12" t="n">
+      <c r="A134" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B134" s="5" t="n">
@@ -23310,7 +23292,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B135" s="5" t="n">
@@ -23337,7 +23319,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12" t="n">
+      <c r="A136" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B136" s="5" t="n">
@@ -23364,7 +23346,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="12" t="n">
+      <c r="A137" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B137" s="5" t="n">
@@ -23391,7 +23373,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="12" t="n">
+      <c r="A138" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B138" s="5" t="n">
@@ -23418,7 +23400,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12" t="n">
+      <c r="A139" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B139" s="5" t="n">
@@ -23445,7 +23427,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="12" t="n">
+      <c r="A140" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B140" s="5" t="n">
@@ -23472,7 +23454,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12" t="n">
+      <c r="A141" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B141" s="5" t="n">
@@ -23499,7 +23481,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B142" s="5" t="n">
@@ -23526,7 +23508,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="12" t="n">
+      <c r="A143" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B143" s="5" t="n">
@@ -23553,7 +23535,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="12" t="n">
+      <c r="A144" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B144" s="5" t="n">
@@ -23580,7 +23562,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="12" t="n">
+      <c r="A145" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B145" s="5" t="n">
@@ -23607,7 +23589,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="12" t="n">
+      <c r="A146" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B146" s="5" t="n">
@@ -23634,7 +23616,7 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="12" t="n">
+      <c r="A147" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B147" s="5" t="n">
@@ -23661,7 +23643,7 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="12" t="n">
+      <c r="A148" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B148" s="5" t="n">
@@ -23688,7 +23670,7 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B149" s="5" t="n">
@@ -23715,7 +23697,7 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="12" t="n">
+      <c r="A150" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B150" s="5" t="n">
@@ -23742,7 +23724,7 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="12" t="n">
+      <c r="A151" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B151" s="5" t="n">
@@ -23769,7 +23751,7 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="12" t="n">
+      <c r="A152" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B152" s="5" t="n">
@@ -23796,7 +23778,7 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B153" s="5" t="n">
@@ -23823,7 +23805,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="12" t="n">
+      <c r="A154" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B154" s="5" t="n">
@@ -23850,7 +23832,7 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="12" t="n">
+      <c r="A155" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B155" s="5" t="n">
@@ -23877,7 +23859,7 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="12" t="n">
+      <c r="A156" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B156" s="5" t="n">
@@ -23904,7 +23886,7 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="12" t="n">
+      <c r="A157" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B157" s="5" t="n">
@@ -23931,7 +23913,7 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="12" t="n">
+      <c r="A158" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B158" s="5" t="n">
@@ -23958,7 +23940,7 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="12" t="n">
+      <c r="A159" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B159" s="5" t="n">
@@ -23985,7 +23967,7 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="12" t="s">
+      <c r="A160" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B160" s="5" t="n">
@@ -24012,7 +23994,7 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="12" t="n">
+      <c r="A161" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B161" s="5" t="n">
@@ -24039,7 +24021,7 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="12" t="n">
+      <c r="A162" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B162" s="5" t="n">
@@ -24066,7 +24048,7 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="12" t="n">
+      <c r="A163" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B163" s="5" t="n">
@@ -24093,7 +24075,7 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="12" t="n">
+      <c r="A164" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B164" s="5" t="n">
@@ -24120,7 +24102,7 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="12" t="n">
+      <c r="A165" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B165" s="5" t="n">
@@ -24147,7 +24129,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="12" t="n">
+      <c r="A166" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B166" s="5" t="n">
@@ -24174,7 +24156,7 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B167" s="5" t="n">
@@ -24201,7 +24183,7 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="12" t="n">
+      <c r="A168" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B168" s="5" t="n">
@@ -24228,7 +24210,7 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="12" t="n">
+      <c r="A169" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B169" s="5" t="n">
@@ -24255,7 +24237,7 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="12" t="n">
+      <c r="A170" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B170" s="5" t="n">
@@ -24282,7 +24264,7 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="12" t="n">
+      <c r="A171" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B171" s="5" t="n">
@@ -24309,7 +24291,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="12" t="n">
+      <c r="A172" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B172" s="5" t="n">
@@ -24336,7 +24318,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="12" t="n">
+      <c r="A173" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B173" s="5" t="n">
@@ -24363,7 +24345,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B174" s="5" t="n">
@@ -24390,7 +24372,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="12" t="n">
+      <c r="A175" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B175" s="5" t="n">
@@ -24417,7 +24399,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="12" t="n">
+      <c r="A176" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B176" s="5" t="n">
@@ -24444,7 +24426,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="12" t="n">
+      <c r="A177" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B177" s="5" t="n">
@@ -24471,7 +24453,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="12" t="n">
+      <c r="A178" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B178" s="5" t="n">
@@ -24498,7 +24480,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="12" t="n">
+      <c r="A179" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B179" s="5" t="n">
@@ -24525,7 +24507,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="12" t="n">
+      <c r="A180" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B180" s="5" t="n">
@@ -24552,7 +24534,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B181" s="5" t="n">
@@ -24579,7 +24561,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="12" t="n">
+      <c r="A182" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B182" s="5" t="n">
@@ -24606,7 +24588,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="12" t="n">
+      <c r="A183" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B183" s="5" t="n">
@@ -24633,7 +24615,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="12" t="n">
+      <c r="A184" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B184" s="5" t="n">
@@ -24660,7 +24642,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="12" t="n">
+      <c r="A185" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B185" s="5" t="n">
@@ -24687,7 +24669,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="12" t="n">
+      <c r="A186" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B186" s="5" t="n">
@@ -24714,7 +24696,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="12" t="n">
+      <c r="A187" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B187" s="5" t="n">
@@ -24741,7 +24723,7 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="12" t="s">
+      <c r="A188" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B188" s="5" t="n">
@@ -24768,7 +24750,7 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="12" t="n">
+      <c r="A189" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B189" s="5" t="n">
@@ -24795,7 +24777,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="12" t="n">
+      <c r="A190" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B190" s="5" t="n">
@@ -24822,7 +24804,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="12" t="n">
+      <c r="A191" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B191" s="5" t="n">
@@ -24849,7 +24831,7 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="12" t="n">
+      <c r="A192" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B192" s="5" t="n">
@@ -24876,7 +24858,7 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="12" t="n">
+      <c r="A193" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B193" s="5" t="n">
@@ -24903,7 +24885,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="12" t="n">
+      <c r="A194" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B194" s="5" t="n">
@@ -24930,7 +24912,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="12" t="s">
+      <c r="A195" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B195" s="5" t="n">
@@ -24957,7 +24939,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="12" t="n">
+      <c r="A196" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B196" s="5" t="n">
@@ -24984,7 +24966,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="12" t="n">
+      <c r="A197" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B197" s="5" t="n">
@@ -25011,7 +24993,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="12" t="n">
+      <c r="A198" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B198" s="5" t="n">
@@ -25038,7 +25020,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="12" t="n">
+      <c r="A199" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B199" s="5" t="n">
@@ -25065,7 +25047,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="12" t="n">
+      <c r="A200" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B200" s="5" t="n">
@@ -25092,7 +25074,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="12" t="n">
+      <c r="A201" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B201" s="5" t="n">
@@ -25119,7 +25101,7 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="12" t="s">
+      <c r="A202" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B202" s="5" t="n">
@@ -25146,7 +25128,7 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="12" t="n">
+      <c r="A203" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B203" s="5" t="n">
@@ -25173,7 +25155,7 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="12" t="n">
+      <c r="A204" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B204" s="5" t="n">
@@ -25200,7 +25182,7 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="12" t="n">
+      <c r="A205" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B205" s="5" t="n">
@@ -25227,7 +25209,7 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="12" t="n">
+      <c r="A206" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B206" s="5" t="n">
@@ -25254,7 +25236,7 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="12" t="n">
+      <c r="A207" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B207" s="5" t="n">
@@ -25281,7 +25263,7 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="12" t="n">
+      <c r="A208" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B208" s="5" t="n">
@@ -25308,7 +25290,7 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="12" t="n">
+      <c r="A209" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B209" s="5" t="n">
@@ -25335,7 +25317,7 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="12" t="n">
+      <c r="A210" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B210" s="5" t="n">
@@ -25362,7 +25344,7 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="12" t="n">
+      <c r="A211" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B211" s="5" t="n">
@@ -25389,7 +25371,7 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="12" t="n">
+      <c r="A212" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B212" s="5" t="n">
@@ -25416,7 +25398,7 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="12" t="s">
+      <c r="A213" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B213" s="5" t="n">
@@ -25443,7 +25425,7 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="12" t="n">
+      <c r="A214" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B214" s="5" t="n">
@@ -25470,7 +25452,7 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="12" t="n">
+      <c r="A215" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B215" s="5" t="n">
@@ -25497,7 +25479,7 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="12" t="n">
+      <c r="A216" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B216" s="5" t="n">
@@ -25524,7 +25506,7 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="12" t="n">
+      <c r="A217" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B217" s="5" t="n">
@@ -25551,7 +25533,7 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="12" t="n">
+      <c r="A218" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B218" s="5" t="n">
@@ -25578,7 +25560,7 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="12" t="n">
+      <c r="A219" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B219" s="5" t="n">
@@ -25605,7 +25587,7 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="12" t="s">
+      <c r="A220" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B220" s="5" t="n">
@@ -25632,7 +25614,7 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="12" t="n">
+      <c r="A221" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B221" s="5" t="n">
@@ -25659,7 +25641,7 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="12" t="n">
+      <c r="A222" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B222" s="5" t="n">
@@ -25686,7 +25668,7 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="12" t="n">
+      <c r="A223" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B223" s="5" t="n">
@@ -25713,7 +25695,7 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="12" t="n">
+      <c r="A224" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B224" s="5" t="n">
@@ -25740,7 +25722,7 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="12" t="n">
+      <c r="A225" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B225" s="5" t="n">
@@ -25767,7 +25749,7 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="12" t="n">
+      <c r="A226" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B226" s="5" t="n">
@@ -25794,7 +25776,7 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="12" t="s">
+      <c r="A227" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B227" s="5" t="n">
@@ -25821,7 +25803,7 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="12" t="n">
+      <c r="A228" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B228" s="5" t="n">
@@ -25848,7 +25830,7 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="12" t="n">
+      <c r="A229" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B229" s="5" t="n">
@@ -25875,7 +25857,7 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="12" t="n">
+      <c r="A230" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B230" s="5" t="n">
@@ -25902,7 +25884,7 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="12" t="n">
+      <c r="A231" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B231" s="5" t="n">
@@ -25929,7 +25911,7 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="12" t="n">
+      <c r="A232" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B232" s="5" t="n">
@@ -25956,7 +25938,7 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="12" t="n">
+      <c r="A233" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B233" s="5" t="n">
@@ -25983,7 +25965,7 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="12" t="s">
+      <c r="A234" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B234" s="5" t="n">
@@ -26010,7 +25992,7 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="12" t="n">
+      <c r="A235" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B235" s="5" t="n">
@@ -26037,7 +26019,7 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="12" t="n">
+      <c r="A236" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B236" s="5" t="n">
@@ -26064,7 +26046,7 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="12" t="n">
+      <c r="A237" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B237" s="5" t="n">
@@ -26091,7 +26073,7 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="12" t="n">
+      <c r="A238" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B238" s="5" t="n">
@@ -26118,7 +26100,7 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="12" t="n">
+      <c r="A239" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B239" s="5" t="n">
@@ -26145,7 +26127,7 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="12" t="n">
+      <c r="A240" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B240" s="5" t="n">
@@ -26172,7 +26154,7 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="12" t="s">
+      <c r="A241" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B241" s="5" t="n">
@@ -26199,7 +26181,7 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="12" t="n">
+      <c r="A242" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B242" s="5" t="n">
@@ -26226,7 +26208,7 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="12" t="n">
+      <c r="A243" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B243" s="5" t="n">
@@ -26253,7 +26235,7 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="12" t="n">
+      <c r="A244" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B244" s="5" t="n">
@@ -26280,7 +26262,7 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="12" t="n">
+      <c r="A245" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B245" s="5" t="n">
@@ -26307,7 +26289,7 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="12" t="n">
+      <c r="A246" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B246" s="5" t="n">
@@ -26334,7 +26316,7 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="12" t="n">
+      <c r="A247" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B247" s="5" t="n">
@@ -26361,7 +26343,7 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="12" t="s">
+      <c r="A248" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B248" s="5" t="n">
@@ -26388,7 +26370,7 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="12" t="n">
+      <c r="A249" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B249" s="5" t="n">
@@ -26415,7 +26397,7 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="12" t="n">
+      <c r="A250" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B250" s="5" t="n">
@@ -26442,7 +26424,7 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="12" t="n">
+      <c r="A251" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B251" s="5" t="n">
@@ -26469,7 +26451,7 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="12" t="n">
+      <c r="A252" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B252" s="5" t="n">
@@ -26496,7 +26478,7 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="12" t="n">
+      <c r="A253" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B253" s="5" t="n">
@@ -26523,7 +26505,7 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="12" t="n">
+      <c r="A254" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B254" s="5" t="n">
@@ -26550,7 +26532,7 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="12" t="s">
+      <c r="A255" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B255" s="5" t="n">
@@ -26577,7 +26559,7 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="12" t="n">
+      <c r="A256" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B256" s="5" t="n">
@@ -26604,7 +26586,7 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="12" t="n">
+      <c r="A257" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B257" s="5" t="n">
@@ -26631,7 +26613,7 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="12" t="n">
+      <c r="A258" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B258" s="5" t="n">
@@ -26658,7 +26640,7 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="12" t="n">
+      <c r="A259" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B259" s="5" t="n">
@@ -26685,7 +26667,7 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="12" t="n">
+      <c r="A260" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B260" s="5" t="n">
@@ -26712,7 +26694,7 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="12" t="n">
+      <c r="A261" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B261" s="5" t="n">
@@ -26739,7 +26721,7 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="12" t="s">
+      <c r="A262" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B262" s="5" t="n">
@@ -26766,7 +26748,7 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="12" t="n">
+      <c r="A263" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B263" s="5" t="n">
@@ -26793,7 +26775,7 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="12" t="n">
+      <c r="A264" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B264" s="5" t="n">
@@ -26820,7 +26802,7 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="12" t="n">
+      <c r="A265" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B265" s="5" t="n">
@@ -26847,7 +26829,7 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="12" t="n">
+      <c r="A266" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B266" s="5" t="n">
@@ -26874,7 +26856,7 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="12" t="n">
+      <c r="A267" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B267" s="5" t="n">
@@ -26901,7 +26883,7 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="12" t="n">
+      <c r="A268" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B268" s="5" t="n">
@@ -26928,7 +26910,7 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="12" t="s">
+      <c r="A269" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B269" s="5" t="n">
@@ -26955,7 +26937,7 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="12" t="n">
+      <c r="A270" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B270" s="5" t="n">
@@ -26982,7 +26964,7 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="12" t="n">
+      <c r="A271" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B271" s="5" t="n">
@@ -27009,7 +26991,7 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="12" t="n">
+      <c r="A272" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B272" s="5" t="n">
@@ -27036,7 +27018,7 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="12" t="n">
+      <c r="A273" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B273" s="5" t="n">
@@ -27063,7 +27045,7 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="12" t="n">
+      <c r="A274" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B274" s="5" t="n">
@@ -27092,7 +27074,7 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="12" t="n">
+      <c r="A275" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B275" s="5" t="n">
@@ -27121,7 +27103,7 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="12" t="s">
+      <c r="A276" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B276" s="5" t="n">
@@ -27150,7 +27132,7 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="12" t="n">
+      <c r="A277" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B277" s="5" t="n">
@@ -27179,7 +27161,7 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="12" t="n">
+      <c r="A278" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B278" s="5" t="n">
@@ -27208,7 +27190,7 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="12" t="n">
+      <c r="A279" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B279" s="5" t="n">
@@ -27237,7 +27219,7 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="12" t="n">
+      <c r="A280" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B280" s="5" t="n">
@@ -27266,7 +27248,7 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="12" t="n">
+      <c r="A281" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B281" s="5" t="n">
@@ -27295,7 +27277,7 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="12" t="n">
+      <c r="A282" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B282" s="5" t="n">
@@ -27324,7 +27306,7 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="12" t="s">
+      <c r="A283" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B283" s="5" t="n">
@@ -27353,7 +27335,7 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="12" t="n">
+      <c r="A284" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B284" s="5" t="n">
@@ -27382,7 +27364,7 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="12" t="n">
+      <c r="A285" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B285" s="5" t="n">
@@ -27411,7 +27393,7 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="12" t="n">
+      <c r="A286" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B286" s="5" t="n">
@@ -27440,7 +27422,7 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="12" t="n">
+      <c r="A287" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B287" s="5" t="n">
@@ -27469,7 +27451,7 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="12" t="n">
+      <c r="A288" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B288" s="5" t="n">
@@ -27498,7 +27480,7 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="12" t="n">
+      <c r="A289" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B289" s="5" t="n">
@@ -27527,7 +27509,7 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="12" t="s">
+      <c r="A290" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B290" s="5" t="n">
@@ -27556,7 +27538,7 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="12" t="n">
+      <c r="A291" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B291" s="5" t="n">
@@ -27585,7 +27567,7 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="12" t="n">
+      <c r="A292" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B292" s="5" t="n">
@@ -27614,7 +27596,7 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="12" t="n">
+      <c r="A293" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B293" s="5" t="n">
@@ -27643,7 +27625,7 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="12" t="n">
+      <c r="A294" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B294" s="5" t="n">
@@ -27672,7 +27654,7 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="12" t="n">
+      <c r="A295" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B295" s="5" t="n">
@@ -27701,7 +27683,7 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="12" t="n">
+      <c r="A296" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B296" s="5" t="n">
@@ -27730,7 +27712,7 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="12" t="n">
+      <c r="A297" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B297" s="5" t="n">
@@ -27759,7 +27741,7 @@
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="12" t="n">
+      <c r="A298" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B298" s="5" t="n">
@@ -27788,7 +27770,7 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="12" t="n">
+      <c r="A299" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B299" s="5" t="n">
@@ -27817,7 +27799,7 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="12" t="n">
+      <c r="A300" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B300" s="5" t="n">
@@ -27846,7 +27828,7 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="12" t="s">
+      <c r="A301" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B301" s="5" t="n">
@@ -27875,7 +27857,7 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="12" t="n">
+      <c r="A302" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B302" s="5" t="n">
@@ -27904,7 +27886,7 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="12" t="n">
+      <c r="A303" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B303" s="5" t="n">
@@ -27933,7 +27915,7 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="12" t="n">
+      <c r="A304" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B304" s="5" t="n">
@@ -27962,7 +27944,7 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="12" t="n">
+      <c r="A305" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B305" s="5" t="n">
@@ -27991,7 +27973,7 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="12" t="n">
+      <c r="A306" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B306" s="5" t="n">
@@ -28020,7 +28002,7 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="12" t="n">
+      <c r="A307" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B307" s="5" t="n">
@@ -28049,7 +28031,7 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="12" t="s">
+      <c r="A308" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B308" s="5" t="n">
@@ -28076,7 +28058,7 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="12" t="n">
+      <c r="A309" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B309" s="5" t="n">
@@ -28103,7 +28085,7 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="12" t="n">
+      <c r="A310" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B310" s="5" t="n">
@@ -28130,7 +28112,7 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="12" t="n">
+      <c r="A311" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B311" s="5" t="n">
@@ -28157,7 +28139,7 @@
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="12" t="n">
+      <c r="A312" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B312" s="5" t="n">
@@ -28184,7 +28166,7 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="12" t="n">
+      <c r="A313" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B313" s="5" t="n">
@@ -28211,7 +28193,7 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="12" t="n">
+      <c r="A314" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B314" s="5" t="n">
@@ -28238,7 +28220,7 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="12" t="s">
+      <c r="A315" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B315" s="5" t="n">
@@ -28265,7 +28247,7 @@
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="12" t="n">
+      <c r="A316" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B316" s="5" t="n">
@@ -28292,7 +28274,7 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="12" t="n">
+      <c r="A317" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B317" s="5" t="n">
@@ -28319,7 +28301,7 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="12" t="n">
+      <c r="A318" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B318" s="5" t="n">
@@ -28346,7 +28328,7 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="12" t="n">
+      <c r="A319" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B319" s="5" t="n">
@@ -28375,7 +28357,7 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="12" t="n">
+      <c r="A320" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B320" s="5" t="n">
@@ -28404,7 +28386,7 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="12" t="n">
+      <c r="A321" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B321" s="5" t="n">
@@ -28431,7 +28413,7 @@
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="12" t="s">
+      <c r="A322" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B322" s="5" t="n">
@@ -28458,7 +28440,7 @@
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="12" t="n">
+      <c r="A323" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B323" s="5" t="n">
@@ -28487,7 +28469,7 @@
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="12" t="n">
+      <c r="A324" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B324" s="5" t="n">
@@ -28516,7 +28498,7 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="12" t="n">
+      <c r="A325" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B325" s="5" t="n">
@@ -28545,7 +28527,7 @@
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="12" t="n">
+      <c r="A326" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B326" s="5" t="n">
@@ -28574,7 +28556,7 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="12" t="n">
+      <c r="A327" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B327" s="5" t="n">
@@ -28603,7 +28585,7 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="12" t="n">
+      <c r="A328" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B328" s="5" t="n">
@@ -28632,7 +28614,7 @@
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="12" t="s">
+      <c r="A329" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B329" s="5" t="n">
@@ -28661,7 +28643,7 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="12" t="n">
+      <c r="A330" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B330" s="5" t="n">
@@ -28690,7 +28672,7 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="12" t="n">
+      <c r="A331" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B331" s="5" t="n">
@@ -28719,7 +28701,7 @@
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="12" t="n">
+      <c r="A332" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B332" s="5" t="n">
@@ -28748,7 +28730,7 @@
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="12" t="n">
+      <c r="A333" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B333" s="5" t="n">
@@ -28777,7 +28759,7 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="12" t="n">
+      <c r="A334" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B334" s="5" t="n">
@@ -28804,7 +28786,7 @@
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="12" t="n">
+      <c r="A335" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B335" s="5" t="n">
@@ -28831,7 +28813,7 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="12" t="s">
+      <c r="A336" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B336" s="5" t="n">
@@ -28858,7 +28840,7 @@
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="12" t="n">
+      <c r="A337" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B337" s="5" t="n">
@@ -28885,7 +28867,7 @@
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="12" t="n">
+      <c r="A338" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B338" s="5" t="n">
@@ -28914,7 +28896,7 @@
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="12" t="n">
+      <c r="A339" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B339" s="5" t="n">
@@ -28943,7 +28925,7 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="12" t="n">
+      <c r="A340" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B340" s="5" t="n">
@@ -28972,7 +28954,7 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="12" t="n">
+      <c r="A341" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B341" s="5" t="n">
@@ -29001,7 +28983,7 @@
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="12" t="n">
+      <c r="A342" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B342" s="5" t="n">
@@ -29030,7 +29012,7 @@
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="12" t="s">
+      <c r="A343" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B343" s="5" t="n">
@@ -29059,7 +29041,7 @@
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="12" t="n">
+      <c r="A344" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B344" s="5" t="n">
@@ -29088,7 +29070,7 @@
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="12" t="n">
+      <c r="A345" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B345" s="5" t="n">
@@ -29117,7 +29099,7 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="12" t="n">
+      <c r="A346" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B346" s="5" t="n">
@@ -29146,7 +29128,7 @@
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="12" t="n">
+      <c r="A347" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B347" s="5" t="n">
@@ -29175,7 +29157,7 @@
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="12" t="n">
+      <c r="A348" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B348" s="5" t="n">
@@ -29204,7 +29186,7 @@
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="12" t="n">
+      <c r="A349" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B349" s="5" t="n">
@@ -29231,7 +29213,7 @@
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="12" t="s">
+      <c r="A350" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B350" s="5" t="n">
@@ -29258,7 +29240,7 @@
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="12" t="n">
+      <c r="A351" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B351" s="5" t="n">
@@ -29285,7 +29267,7 @@
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="12" t="n">
+      <c r="A352" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B352" s="5" t="n">
@@ -29314,7 +29296,7 @@
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="12" t="n">
+      <c r="A353" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B353" s="5" t="n">
@@ -29341,16 +29323,16 @@
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B354" s="9" t="n">
+      <c r="A354" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B354" s="10" t="n">
         <v>51</v>
       </c>
-      <c r="C354" s="9" t="n">
+      <c r="C354" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D354" s="9" t="n">
+      <c r="D354" s="10" t="n">
         <v>1</v>
       </c>
       <c r="E354" s="15" t="n">
@@ -29400,16 +29382,16 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A122" activeCellId="0" sqref="A122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.36"/>
   </cols>
   <sheetData>
@@ -29443,7 +29425,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="n">
@@ -29472,7 +29454,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="n">
@@ -29501,7 +29483,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="n">
@@ -29530,7 +29512,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="n">
@@ -29557,7 +29539,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5" t="n">
@@ -29584,7 +29566,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="n">
@@ -29611,7 +29593,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="n">
@@ -29638,7 +29620,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="n">
@@ -29665,7 +29647,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="n">
@@ -29692,7 +29674,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="n">
@@ -29719,7 +29701,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="n">
@@ -29746,7 +29728,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="n">
@@ -29773,7 +29755,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B14" s="5" t="n">
@@ -29800,7 +29782,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B15" s="5" t="n">
@@ -29827,7 +29809,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B16" s="5" t="n">
@@ -29854,7 +29836,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B17" s="5" t="n">
@@ -29881,7 +29863,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="n">
@@ -29908,7 +29890,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="A19" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B19" s="5" t="n">
@@ -29935,7 +29917,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="5" t="n">
@@ -29962,7 +29944,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B21" s="5" t="n">
@@ -29989,7 +29971,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="A22" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B22" s="5" t="n">
@@ -30016,7 +29998,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
+      <c r="A23" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B23" s="5" t="n">
@@ -30043,7 +30025,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
+      <c r="A24" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B24" s="5" t="n">
@@ -30070,7 +30052,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+      <c r="A25" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B25" s="5" t="n">
@@ -30097,7 +30079,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
+      <c r="A26" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B26" s="5" t="n">
@@ -30124,7 +30106,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="5" t="n">
@@ -30151,7 +30133,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
+      <c r="A28" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B28" s="5" t="n">
@@ -30178,7 +30160,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
+      <c r="A29" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B29" s="5" t="n">
@@ -30205,7 +30187,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+      <c r="A30" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B30" s="5" t="n">
@@ -30232,7 +30214,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="A31" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B31" s="5" t="n">
@@ -30259,7 +30241,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
+      <c r="A32" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B32" s="5" t="n">
@@ -30286,7 +30268,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="n">
+      <c r="A33" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B33" s="5" t="n">
@@ -30313,7 +30295,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="5" t="n">
@@ -30340,7 +30322,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="n">
+      <c r="A35" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B35" s="5" t="n">
@@ -30367,7 +30349,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="n">
+      <c r="A36" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B36" s="5" t="n">
@@ -30394,7 +30376,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="n">
+      <c r="A37" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B37" s="5" t="n">
@@ -30421,7 +30403,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
+      <c r="A38" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B38" s="5" t="n">
@@ -30448,7 +30430,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="n">
+      <c r="A39" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B39" s="5" t="n">
@@ -30475,7 +30457,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="n">
+      <c r="A40" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B40" s="5" t="n">
@@ -30502,7 +30484,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="5" t="n">
@@ -30529,7 +30511,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="n">
+      <c r="A42" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B42" s="5" t="n">
@@ -30556,7 +30538,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="n">
+      <c r="A43" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B43" s="5" t="n">
@@ -30583,7 +30565,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="n">
+      <c r="A44" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B44" s="5" t="n">
@@ -30610,7 +30592,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="n">
+      <c r="A45" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B45" s="5" t="n">
@@ -30637,7 +30619,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="n">
+      <c r="A46" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B46" s="5" t="n">
@@ -30664,7 +30646,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="n">
+      <c r="A47" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B47" s="5" t="n">
@@ -30691,7 +30673,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="5" t="n">
@@ -30718,7 +30700,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="n">
+      <c r="A49" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B49" s="5" t="n">
@@ -30745,7 +30727,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="n">
+      <c r="A50" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B50" s="5" t="n">
@@ -30772,7 +30754,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="n">
+      <c r="A51" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B51" s="5" t="n">
@@ -30799,7 +30781,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="n">
+      <c r="A52" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B52" s="5" t="n">
@@ -30826,7 +30808,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="n">
+      <c r="A53" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B53" s="5" t="n">
@@ -30853,7 +30835,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="n">
+      <c r="A54" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B54" s="5" t="n">
@@ -30880,7 +30862,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="5" t="n">
@@ -30907,7 +30889,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="n">
+      <c r="A56" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B56" s="5" t="n">
@@ -30934,7 +30916,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="n">
+      <c r="A57" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B57" s="5" t="n">
@@ -30961,7 +30943,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="n">
+      <c r="A58" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B58" s="5" t="n">
@@ -30988,7 +30970,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="n">
+      <c r="A59" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B59" s="5" t="n">
@@ -31015,7 +30997,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="n">
+      <c r="A60" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B60" s="5" t="n">
@@ -31042,7 +31024,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="n">
+      <c r="A61" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B61" s="5" t="n">
@@ -31069,7 +31051,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="5" t="n">
@@ -31096,7 +31078,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="n">
+      <c r="A63" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B63" s="5" t="n">
@@ -31123,7 +31105,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="n">
+      <c r="A64" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B64" s="5" t="n">
@@ -31150,7 +31132,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="n">
+      <c r="A65" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B65" s="5" t="n">
@@ -31177,7 +31159,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="n">
+      <c r="A66" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B66" s="5" t="n">
@@ -31204,7 +31186,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="n">
+      <c r="A67" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B67" s="5" t="n">
@@ -31231,7 +31213,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="n">
+      <c r="A68" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B68" s="5" t="n">
@@ -31258,7 +31240,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="5" t="n">
@@ -31285,7 +31267,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="n">
+      <c r="A70" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B70" s="5" t="n">
@@ -31312,7 +31294,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="n">
+      <c r="A71" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B71" s="5" t="n">
@@ -31339,7 +31321,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="n">
+      <c r="A72" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B72" s="5" t="n">
@@ -31366,7 +31348,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="n">
+      <c r="A73" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B73" s="5" t="n">
@@ -31393,7 +31375,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="12" t="n">
+      <c r="A74" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B74" s="5" t="n">
@@ -31420,7 +31402,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="n">
+      <c r="A75" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B75" s="5" t="n">
@@ -31447,7 +31429,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B76" s="5" t="n">
@@ -31474,7 +31456,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12" t="n">
+      <c r="A77" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B77" s="5" t="n">
@@ -31501,7 +31483,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="12" t="n">
+      <c r="A78" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B78" s="5" t="n">
@@ -31528,7 +31510,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12" t="n">
+      <c r="A79" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B79" s="5" t="n">
@@ -31555,7 +31537,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="12" t="n">
+      <c r="A80" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B80" s="5" t="n">
@@ -31582,7 +31564,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12" t="n">
+      <c r="A81" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B81" s="5" t="n">
@@ -31609,7 +31591,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="12" t="n">
+      <c r="A82" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B82" s="5" t="n">
@@ -31636,7 +31618,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B83" s="5" t="n">
@@ -31663,7 +31645,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="n">
+      <c r="A84" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B84" s="5" t="n">
@@ -31690,7 +31672,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="n">
+      <c r="A85" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B85" s="5" t="n">
@@ -31717,7 +31699,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="n">
+      <c r="A86" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B86" s="5" t="n">
@@ -31744,7 +31726,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="n">
+      <c r="A87" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B87" s="5" t="n">
@@ -31771,7 +31753,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="n">
+      <c r="A88" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B88" s="5" t="n">
@@ -31798,7 +31780,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="n">
+      <c r="A89" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B89" s="5" t="n">
@@ -31825,7 +31807,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="5" t="n">
@@ -31852,7 +31834,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12" t="n">
+      <c r="A91" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B91" s="5" t="n">
@@ -31879,7 +31861,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="12" t="n">
+      <c r="A92" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B92" s="5" t="n">
@@ -31906,7 +31888,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12" t="n">
+      <c r="A93" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B93" s="5" t="n">
@@ -31933,7 +31915,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12" t="n">
+      <c r="A94" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B94" s="5" t="n">
@@ -31960,7 +31942,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12" t="n">
+      <c r="A95" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B95" s="5" t="n">
@@ -31987,7 +31969,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="12" t="n">
+      <c r="A96" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B96" s="5" t="n">
@@ -32014,7 +31996,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B97" s="5" t="n">
@@ -32041,7 +32023,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="12" t="n">
+      <c r="A98" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B98" s="5" t="n">
@@ -32068,7 +32050,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12" t="n">
+      <c r="A99" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B99" s="5" t="n">
@@ -32095,7 +32077,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="12" t="n">
+      <c r="A100" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B100" s="5" t="n">
@@ -32122,7 +32104,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="n">
+      <c r="A101" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B101" s="5" t="n">
@@ -32149,7 +32131,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="n">
+      <c r="A102" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B102" s="5" t="n">
@@ -32176,7 +32158,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12" t="n">
+      <c r="A103" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B103" s="5" t="n">
@@ -32203,7 +32185,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B104" s="5" t="n">
@@ -32230,7 +32212,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="12" t="n">
+      <c r="A105" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B105" s="5" t="n">
@@ -32257,7 +32239,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="12" t="n">
+      <c r="A106" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B106" s="5" t="n">
@@ -32284,7 +32266,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12" t="n">
+      <c r="A107" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B107" s="5" t="n">
@@ -32311,7 +32293,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="n">
+      <c r="A108" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B108" s="5" t="n">
@@ -32338,7 +32320,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12" t="n">
+      <c r="A109" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B109" s="5" t="n">
@@ -32365,7 +32347,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12" t="n">
+      <c r="A110" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B110" s="5" t="n">
@@ -32392,7 +32374,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B111" s="5" t="n">
@@ -32419,7 +32401,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12" t="n">
+      <c r="A112" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B112" s="5" t="n">
@@ -32446,7 +32428,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12" t="n">
+      <c r="A113" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B113" s="5" t="n">
@@ -32473,7 +32455,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12" t="n">
+      <c r="A114" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B114" s="5" t="n">
@@ -32500,7 +32482,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12" t="n">
+      <c r="A115" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B115" s="5" t="n">
@@ -32527,7 +32509,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="12" t="n">
+      <c r="A116" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B116" s="5" t="n">
@@ -32554,7 +32536,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="12" t="n">
+      <c r="A117" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B117" s="5" t="n">
@@ -32581,7 +32563,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B118" s="5" t="n">
@@ -32608,7 +32590,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12" t="n">
+      <c r="A119" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B119" s="5" t="n">
@@ -32635,7 +32617,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="12" t="n">
+      <c r="A120" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B120" s="5" t="n">
@@ -32662,7 +32644,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12" t="n">
+      <c r="A121" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B121" s="5" t="n">
@@ -32689,7 +32671,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="12" t="n">
+      <c r="A122" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B122" s="5" t="n">
@@ -32716,7 +32698,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12" t="n">
+      <c r="A123" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B123" s="5" t="n">
@@ -32743,7 +32725,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12" t="n">
+      <c r="A124" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B124" s="5" t="n">
@@ -32770,7 +32752,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B125" s="5" t="n">
@@ -32797,7 +32779,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="12" t="n">
+      <c r="A126" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B126" s="5" t="n">
@@ -32824,7 +32806,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="n">
+      <c r="A127" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B127" s="5" t="n">
@@ -32851,7 +32833,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12" t="n">
+      <c r="A128" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B128" s="5" t="n">
@@ -32878,7 +32860,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="n">
+      <c r="A129" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B129" s="5" t="n">
@@ -32905,7 +32887,7 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12" t="n">
+      <c r="A130" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B130" s="5" t="n">
@@ -32932,7 +32914,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12" t="n">
+      <c r="A131" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B131" s="5" t="n">
@@ -32959,7 +32941,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B132" s="5" t="n">
@@ -32986,7 +32968,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12" t="n">
+      <c r="A133" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B133" s="5" t="n">
@@ -33013,7 +32995,7 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="12" t="n">
+      <c r="A134" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B134" s="5" t="n">
@@ -33040,7 +33022,7 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12" t="n">
+      <c r="A135" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B135" s="5" t="n">
@@ -33067,7 +33049,7 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12" t="n">
+      <c r="A136" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B136" s="5" t="n">
@@ -33094,7 +33076,7 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="12" t="n">
+      <c r="A137" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B137" s="5" t="n">
@@ -33121,7 +33103,7 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="12" t="n">
+      <c r="A138" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B138" s="5" t="n">
@@ -33148,7 +33130,7 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B139" s="5" t="n">
@@ -33175,7 +33157,7 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="12" t="n">
+      <c r="A140" s="8" t="n">
         <v>2</v>
       </c>
       <c r="B140" s="5" t="n">
@@ -33202,7 +33184,7 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12" t="n">
+      <c r="A141" s="8" t="n">
         <v>3</v>
       </c>
       <c r="B141" s="5" t="n">
@@ -33229,7 +33211,7 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12" t="n">
+      <c r="A142" s="8" t="n">
         <v>4</v>
       </c>
       <c r="B142" s="5" t="n">
@@ -33256,7 +33238,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="12" t="n">
+      <c r="A143" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B143" s="5" t="n">
@@ -33283,7 +33265,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="12" t="n">
+      <c r="A144" s="8" t="n">
         <v>6</v>
       </c>
       <c r="B144" s="5" t="n">
@@ -33310,7 +33292,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="12" t="n">
+      <c r="A145" s="8" t="n">
         <v>7</v>
       </c>
       <c r="B145" s="5" t="n">
@@ -33337,29 +33319,29 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B146" s="9" t="n">
+      <c r="B146" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="C146" s="9" t="n">
+      <c r="C146" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="D146" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E146" s="10" t="n">
+      <c r="D146" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E146" s="11" t="n">
         <v>66.03</v>
       </c>
-      <c r="F146" s="10" t="n">
+      <c r="F146" s="11" t="n">
         <v>8.53333333333333</v>
       </c>
-      <c r="G146" s="10" t="n">
+      <c r="G146" s="11" t="n">
         <v>3.03225679012346</v>
       </c>
-      <c r="H146" s="10"/>
-      <c r="I146" s="11" t="n">
+      <c r="H146" s="11"/>
+      <c r="I146" s="12" t="n">
         <v>20.784</v>
       </c>
     </row>
